--- a/Image Processing and Computer Vision/Punkte_IPCV.xlsx
+++ b/Image Processing and Computer Vision/Punkte_IPCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Image Processing and Computer Vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A328CEA1-8E15-4E39-A65D-0C3555BE3134}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA3352-5BAC-4498-976B-6115FFF373E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Blatt 1</t>
   </si>
@@ -496,7 +501,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f xml:space="preserve"> C4/D4</f>
+        <f t="shared" ref="H4:H17" si="0" xml:space="preserve"> C4/D4</f>
         <v>1</v>
       </c>
     </row>
@@ -567,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <f xml:space="preserve"> C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -588,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <f xml:space="preserve"> C6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -609,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <f xml:space="preserve"> C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -630,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <f xml:space="preserve"> C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -638,23 +643,35 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
-      <c r="H9" t="e">
-        <f xml:space="preserve"> C9/D9</f>
-        <v>#DIV/0!</v>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
       <c r="H10" t="e">
-        <f xml:space="preserve"> C10/D10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -663,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="e">
-        <f xml:space="preserve"> C11/D11</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -672,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="e">
-        <f xml:space="preserve"> C12/D12</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -681,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="e">
-        <f xml:space="preserve"> C13/D13</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -690,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="H14" t="e">
-        <f xml:space="preserve"> C14/D14</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -699,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="e">
-        <f xml:space="preserve"> C15/D15</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -708,14 +725,14 @@
         <v>15</v>
       </c>
       <c r="H16" t="e">
-        <f xml:space="preserve"> C16/D16</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="H17" t="e">
-        <f xml:space="preserve"> C17/D17</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -725,23 +742,23 @@
       </c>
       <c r="C19">
         <f>SUM(C4:C16)</f>
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <f>SUM(D4:D16)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E19">
         <f>SUM(E4:E16)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <f>SUM(F4:F16)</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H19">
         <f xml:space="preserve"> (C19+E19)/(D19+F19)</f>
-        <v>0.84895833333333337</v>
+        <v>0.82017543859649122</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -750,7 +767,7 @@
       </c>
       <c r="C22">
         <f xml:space="preserve"> (C19+E19)/468</f>
-        <v>0.34829059829059827</v>
+        <v>0.3995726495726496</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -759,7 +776,7 @@
       </c>
       <c r="C23">
         <f xml:space="preserve"> (C19+E19)/312</f>
-        <v>0.52243589743589747</v>
+        <v>0.59935897435897434</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -768,7 +785,7 @@
       </c>
       <c r="C25">
         <f xml:space="preserve"> 312-(C19+E19)</f>
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">

--- a/Image Processing and Computer Vision/Punkte_IPCV.xlsx
+++ b/Image Processing and Computer Vision/Punkte_IPCV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Image Processing and Computer Vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA3352-5BAC-4498-976B-6115FFF373E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12771E16-8E9F-4E44-9711-C17B9F5B2DA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
+    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="18684" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Blatt 1</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Zulassung:</t>
+  </si>
+  <si>
+    <t>Bisher erreichbare Punkte:</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H17" si="0" xml:space="preserve"> C4/D4</f>
+        <f t="shared" ref="H4:H16" si="0" xml:space="preserve"> C4/D4</f>
         <v>1</v>
       </c>
     </row>
@@ -664,39 +667,75 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
       <c r="E10">
         <v>12</v>
       </c>
       <c r="F10">
         <v>12</v>
       </c>
-      <c r="H10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
       <c r="H13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -731,10 +770,6 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="H17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -742,23 +777,32 @@
       </c>
       <c r="C19">
         <f>SUM(C4:C16)</f>
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="D19">
         <f>SUM(D4:D16)</f>
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="E19">
         <f>SUM(E4:E16)</f>
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F19">
         <f>SUM(F4:F16)</f>
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H19">
         <f xml:space="preserve"> (C19+E19)/(D19+F19)</f>
-        <v>0.82017543859649122</v>
+        <v>0.8035714285714286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <f xml:space="preserve"> (D19+F19)/468</f>
+        <v>0.71794871794871795</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -767,7 +811,7 @@
       </c>
       <c r="C22">
         <f xml:space="preserve"> (C19+E19)/468</f>
-        <v>0.3995726495726496</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -776,7 +820,7 @@
       </c>
       <c r="C23">
         <f xml:space="preserve"> (C19+E19)/312</f>
-        <v>0.59935897435897434</v>
+        <v>0.86538461538461542</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -785,7 +829,7 @@
       </c>
       <c r="C25">
         <f xml:space="preserve"> 312-(C19+E19)</f>
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">

--- a/Image Processing and Computer Vision/Punkte_IPCV.xlsx
+++ b/Image Processing and Computer Vision/Punkte_IPCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\SoSe-2019\Image Processing and Computer Vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12771E16-8E9F-4E44-9711-C17B9F5B2DA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF44C76-9582-47F6-8557-8B610A80C607}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="18684" xr2:uid="{BE9EF46F-D12E-4FED-84FE-F0F6C201D4FE}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,21 +730,33 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="H13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
       <c r="H14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -777,23 +789,23 @@
       </c>
       <c r="C19">
         <f>SUM(C4:C16)</f>
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D19">
         <f>SUM(D4:D16)</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="E19">
         <f>SUM(E4:E16)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F19">
         <f>SUM(F4:F16)</f>
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H19">
         <f xml:space="preserve"> (C19+E19)/(D19+F19)</f>
-        <v>0.8035714285714286</v>
+        <v>0.7876344086021505</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -802,7 +814,7 @@
       </c>
       <c r="C21">
         <f xml:space="preserve"> (D19+F19)/468</f>
-        <v>0.71794871794871795</v>
+        <v>0.79487179487179482</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,7 +823,7 @@
       </c>
       <c r="C22">
         <f xml:space="preserve"> (C19+E19)/468</f>
-        <v>0.57692307692307687</v>
+        <v>0.62606837606837606</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -820,7 +832,7 @@
       </c>
       <c r="C23">
         <f xml:space="preserve"> (C19+E19)/312</f>
-        <v>0.86538461538461542</v>
+        <v>0.9391025641025641</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -829,7 +841,7 @@
       </c>
       <c r="C25">
         <f xml:space="preserve"> 312-(C19+E19)</f>
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
